--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,31 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\compañia\OFICINA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7CFBC1-E988-4271-89B0-E02182A6FF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7245"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
   <si>
-    <t xml:space="preserve">Jaime Abril </t>
+    <t>Comprobante de egreso</t>
+  </si>
+  <si>
+    <t>fecha:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco: </t>
+  </si>
+  <si>
+    <t>Bolivariano</t>
+  </si>
+  <si>
+    <t>Cheque:</t>
+  </si>
+  <si>
+    <t>Socio:</t>
+  </si>
+  <si>
+    <t>Jaime Abril</t>
+  </si>
+  <si>
+    <t>CI:</t>
+  </si>
+  <si>
+    <t>firma:</t>
+  </si>
+  <si>
+    <t>Descripción:</t>
+  </si>
+  <si>
+    <t>Anticipo de viaje de Yupi a UIO Supermaxi</t>
+  </si>
+  <si>
+    <t>Valor:</t>
+  </si>
+  <si>
+    <t>ADESGAE CIA LTDA</t>
   </si>
   <si>
     <r>
-      <t>Seiscientos cincuenta    00/</t>
+      <t>DOS MIL SEISCIENTOS CUARENTA Y OCHO    75/</t>
     </r>
     <r>
       <rPr>
@@ -38,56 +80,11 @@
       <t>100</t>
     </r>
   </si>
-  <si>
-    <t>Comprobante de egreso</t>
-  </si>
-  <si>
-    <t>fecha:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banco: </t>
-  </si>
-  <si>
-    <t>Bolivariano</t>
-  </si>
-  <si>
-    <t>Cheque:</t>
-  </si>
-  <si>
-    <t>Socio:</t>
-  </si>
-  <si>
-    <t>Jaime Abril</t>
-  </si>
-  <si>
-    <t>CI:</t>
-  </si>
-  <si>
-    <t>firma:</t>
-  </si>
-  <si>
-    <t>Descripción:</t>
-  </si>
-  <si>
-    <t>Anticipo de viaje de Yupi a UIO Supermaxi</t>
-  </si>
-  <si>
-    <t>Valor:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socio: </t>
-  </si>
-  <si>
-    <t>Cristian Abril</t>
-  </si>
-  <si>
-    <t>Juan Abril</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -164,7 +161,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -191,6 +187,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,52 +198,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>100856</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>755278</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>11208</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:srcRect l="8306" t="2191" r="4455"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="8148919" y="2194114"/>
-          <a:ext cx="2622178" cy="5226422"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -292,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,9 +281,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,6 +333,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,276 +525,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:Q33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+        <v>2648.75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="1"/>
-      <c r="I2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="2" t="b">
-        <f ca="1">K4=TODAY()</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="6">
-        <v>45056</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="N5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1245</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1724600125</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="4">
-        <v>200</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="4">
-        <v>350</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="4">
-        <v>100</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45057</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="I2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A7:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I23" sqref="A15:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1724600125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A7:I7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\compañia\OFICINA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7CFBC1-E988-4271-89B0-E02182A6FF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
   <si>
-    <t>Comprobante de egreso</t>
-  </si>
-  <si>
     <t>fecha:</t>
   </si>
   <si>
@@ -57,34 +48,67 @@
     <t>Descripción:</t>
   </si>
   <si>
-    <t>Anticipo de viaje de Yupi a UIO Supermaxi</t>
-  </si>
-  <si>
     <t>Valor:</t>
   </si>
   <si>
-    <t>ADESGAE CIA LTDA</t>
-  </si>
-  <si>
-    <r>
-      <t>DOS MIL SEISCIENTOS CUARENTA Y OCHO    75/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>CIEN</t>
+  </si>
+  <si>
+    <t>VEINTIUNO</t>
+  </si>
+  <si>
+    <t>VENTIDOS</t>
+  </si>
+  <si>
+    <t>VENTITRES</t>
+  </si>
+  <si>
+    <t>VENTICUATRO</t>
+  </si>
+  <si>
+    <t>VENTICINCO</t>
+  </si>
+  <si>
+    <t>VENTISEIS</t>
+  </si>
+  <si>
+    <t>VALOR CHEQUE</t>
+  </si>
+  <si>
+    <t>EN LETRAS</t>
+  </si>
+  <si>
+    <t>DETALLE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Comprobante de Egreso</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Beneficiario:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MABELL MECIAS</t>
+  </si>
+  <si>
+    <t>aqupi va la descripcion del egreso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -92,13 +116,6 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -120,16 +137,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -146,11 +176,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -161,33 +356,98 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,7 +508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,26 +541,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,23 +576,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -525,47 +751,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>2648.75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+        <f>24.06+1144.7</f>
+        <v>1168.76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="str">
+        <f>Hoja3!E9</f>
+        <v>MIL CIENTO SESENTA Y OCHO  76/100</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
         <v>45057</v>
@@ -582,142 +810,483 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A7:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="A15:I23"/>
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C3" s="20">
+        <v>45056</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="30">
+        <f>Hoja1!G1</f>
+        <v>1168.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="27" t="str">
+        <f>Hoja1!B1</f>
+        <v>MABELL MECIAS</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="F10" s="4" t="s">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <f>SUM(F9:F48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G10">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="B9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="4" t="s">
+      <c r="B10" s="33">
+        <v>1724600125</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
-        <v>1724600125</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="4"/>
-    </row>
+      <c r="E13" s="18"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A7:I7"/>
+  <mergeCells count="5">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1">
+        <f>Hoja1!G1</f>
+        <v>1168.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f>I6-K3</f>
+        <v>216</v>
+      </c>
+      <c r="K3">
+        <f>SUM(K4:K21)</f>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <f>C1</f>
+        <v>1168.76</v>
+      </c>
+      <c r="C4">
+        <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
+        <v>MIL</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(E4="","",E4)</f>
+        <v>MIL</v>
+      </c>
+      <c r="I4">
+        <v>580</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
+        <v>168.76</v>
+      </c>
+      <c r="C5">
+        <f>IF(B5&gt;=100,INT(B5/100),0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(C5=0,"",IF(C6=0,IF(C7=0,A5,IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
+        <v>CIENTO</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(E5="","",E5)</f>
+        <v>CIENTO</v>
+      </c>
+      <c r="I5">
+        <v>380</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
+        <v>68.759999999999991</v>
+      </c>
+      <c r="C6">
+        <f>IF(B6&gt;=10,INT(B6/10),0)</f>
+        <v>6</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
+        <v>SESENTA</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
+        <v>SESENTA Y OCHO</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
+        <v>SESENTA Y OCHO</v>
+      </c>
+      <c r="I6">
+        <f>I5+I4</f>
+        <v>960</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
+        <v>8.7599999999999909</v>
+      </c>
+      <c r="C7">
+        <f>INT(B7)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE",""))))))))</f>
+        <v>OCHO</v>
+      </c>
+      <c r="E7">
+        <f>INT(B6)</f>
+        <v>68</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(C6=0,D7,IF(C6=1,"",""))</f>
+        <v/>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>B7-C7</f>
+        <v>0.75999999999999091</v>
+      </c>
+      <c r="C8">
+        <f>B8*100</f>
+        <v>75.999999999999091</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" t="str">
+        <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
+        <v>MIL CIENTO SESENTA Y OCHO  76/100</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="K20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="K21">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -36,9 +36,6 @@
     <t>Socio:</t>
   </si>
   <si>
-    <t>Jaime Abril</t>
-  </si>
-  <si>
     <t>CI:</t>
   </si>
   <si>
@@ -99,10 +96,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>MABELL MECIAS</t>
-  </si>
-  <si>
-    <t>aqupi va la descripcion del egreso</t>
+    <t>CRISTIAN ABRIL</t>
+  </si>
+  <si>
+    <t>PAGO DE PLAN DE CELULAR DE LA OFICINA DE 2 MESES</t>
   </si>
 </sst>
 </file>
@@ -159,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -341,11 +338,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -362,18 +374,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -395,15 +395,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -413,41 +407,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,22 +784,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <f>24.06+1144.7</f>
-        <v>1168.76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="str">
         <f>Hoja3!E9</f>
-        <v>MIL CIENTO SESENTA Y OCHO  76/100</v>
+        <v>SESENTA  00/100</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -790,13 +806,13 @@
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45058</v>
       </c>
     </row>
   </sheetData>
@@ -813,174 +829,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="A1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>45056</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="29">
-        <v>1245</v>
+      <c r="F3" s="24">
+        <v>1251</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="25">
         <f>Hoja1!G1</f>
-        <v>1168.76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="27" t="str">
+      <c r="B5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="str">
         <f>Hoja1!B1</f>
-        <v>MABELL MECIAS</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+        <v>CRISTIAN ABRIL</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8">
+      <c r="G7" s="52">
         <f>SUM(F9:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
+        <v>60</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="43" t="str">
+        <f>C5</f>
+        <v>CRISTIAN ABRIL</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="33">
-        <v>1724600125</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="48"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+    </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1010,13 +1034,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="44"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>1168.76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1031,15 +1055,15 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>1168.76</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1047,11 +1071,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>MIL</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>MIL</v>
+        <v/>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1062,15 +1086,15 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>168.76</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
@@ -1078,11 +1102,11 @@
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,A5,IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>CIENTO</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <f>IF(E5="","",E5)</f>
-        <v>CIENTO</v>
+        <v/>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1094,7 +1118,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>68.759999999999991</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
@@ -1106,11 +1130,11 @@
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>SESENTA Y OCHO</v>
+        <v>SESENTA</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>SESENTA Y OCHO</v>
+        <v>SESENTA</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1123,19 +1147,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>8.7599999999999909</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE",""))))))))</f>
-        <v>OCHO</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1152,26 +1176,26 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0.75999999999999091</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>75.999999999999091</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>MIL CIENTO SESENTA Y OCHO  76/100</v>
+        <v>SESENTA  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>
@@ -1197,7 +1221,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1208,7 +1232,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -1219,7 +1243,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15">
         <v>30</v>
@@ -1230,7 +1254,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16">
         <v>50</v>
@@ -1241,7 +1265,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17">
         <v>30</v>
@@ -1252,7 +1276,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18">
         <v>20</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -96,10 +96,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>CRISTIAN ABRIL</t>
-  </si>
-  <si>
     <t>PAGO DE PLAN DE CELULAR DE LA OFICINA DE 2 MESES</t>
+  </si>
+  <si>
+    <t>MARCELO ABRIL</t>
+  </si>
+  <si>
+    <t>SEISCIENTOS</t>
   </si>
 </sst>
 </file>
@@ -415,12 +418,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,23 +468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,21 +787,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>60</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="str">
         <f>Hoja3!E9</f>
-        <v>SESENTA  00/100</v>
+        <v>MIL SEISCIENTOS  00/100</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -806,13 +809,13 @@
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45058</v>
+        <v>45062</v>
       </c>
     </row>
   </sheetData>
@@ -829,22 +832,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -875,7 +878,7 @@
       </c>
       <c r="F4" s="25">
         <f>Hoja1!G1</f>
-        <v>60</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -883,12 +886,12 @@
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="38" t="str">
+      <c r="C5" s="45" t="str">
         <f>Hoja1!B1</f>
-        <v>CRISTIAN ABRIL</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+        <v>MARCELO ABRIL</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -897,17 +900,17 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="38">
         <f>SUM(F9:F48)</f>
         <v>60</v>
       </c>
@@ -919,11 +922,11 @@
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="43" t="str">
+      <c r="B9" s="50" t="str">
         <f>C5</f>
-        <v>CRISTIAN ABRIL</v>
-      </c>
-      <c r="C9" s="43"/>
+        <v>MARCELO ABRIL</v>
+      </c>
+      <c r="C9" s="50"/>
       <c r="D9" s="11"/>
       <c r="E9" s="26" t="s">
         <v>9</v>
@@ -936,7 +939,7 @@
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
       <c r="E10" s="13"/>
@@ -953,18 +956,18 @@
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="40"/>
+      <c r="A12" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
       <c r="E12" s="29"/>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="30"/>
       <c r="D13" s="31" t="s">
         <v>7</v>
@@ -974,13 +977,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H16" s="8"/>
@@ -1025,7 +1028,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,13 +1037,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="51"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>60</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1059,11 +1062,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>60</v>
+        <v>1600</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1071,11 +1074,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1090,23 +1093,22 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>SEIS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,A5,IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <f>IF(E5="","",E5)</f>
-        <v/>
+        <v>CIEN</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1118,23 +1120,23 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>SESENTA</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>SESENTA</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>SESENTA</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1159,7 +1161,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1187,15 +1189,15 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>SESENTA  00/100</v>
+        <v>MIL SEISCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5975E26-98A9-4142-96E5-5F137C6FF7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -99,16 +114,19 @@
     <t>PAGO DE PLAN DE CELULAR DE LA OFICINA DE 2 MESES</t>
   </si>
   <si>
-    <t>MARCELO ABRIL</t>
-  </si>
-  <si>
     <t>SEISCIENTOS</t>
+  </si>
+  <si>
+    <t>FELBENITRANSS S.A</t>
+  </si>
+  <si>
+    <t>Dos mil     00/100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -360,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -376,9 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -393,8 +409,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -404,10 +420,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -418,10 +431,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,7 +462,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -528,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,9 +573,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,6 +625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -771,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,32 +833,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>1600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="str">
-        <f>Hoja3!E9</f>
-        <v>MIL SEISCIENTOS  00/100</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
         <v>45062</v>
@@ -829,7 +871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
@@ -839,60 +881,60 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>45056</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="22">
         <v>1251</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>1600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="45" t="str">
+      <c r="C5" s="41" t="str">
         <f>Hoja1!B1</f>
-        <v>MARCELO ABRIL</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="23"/>
+        <v>FELBENITRANSS S.A</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -900,116 +942,94 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="37" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="34">
         <f>SUM(F9:F48)</f>
         <v>60</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="50" t="str">
+      <c r="B9" s="46" t="str">
         <f>C5</f>
-        <v>MARCELO ABRIL</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="26" t="s">
+        <v>FELBENITRANSS S.A</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="29">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A7:E7"/>
@@ -1024,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1037,13 +1057,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>1600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1062,23 +1082,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v/>
+        <v>DOS</v>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>MIL</v>
+        <v>DOS MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>MIL</v>
+        <v>DOS MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1093,22 +1113,22 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>SEIS</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,A5,IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>CIEN</v>
+        <v/>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1189,15 +1209,15 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>MIL SEISCIENTOS  00/100</v>
+        <v>DOS MIL SEISCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5975E26-98A9-4142-96E5-5F137C6FF7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD30AC4-71B7-4145-BBA2-940434F76E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,10 +117,10 @@
     <t>SEISCIENTOS</t>
   </si>
   <si>
-    <t>FELBENITRANSS S.A</t>
-  </si>
-  <si>
-    <t>Dos mil     00/100</t>
+    <t>Doscientos     00/100</t>
+  </si>
+  <si>
+    <t>German Masabanda</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,19 +834,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -857,7 +857,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45063</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +920,7 @@
       </c>
       <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
       </c>
       <c r="C5" s="41" t="str">
         <f>Hoja1!B1</f>
-        <v>FELBENITRANSS S.A</v>
+        <v>German Masabanda</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="B9" s="46" t="str">
         <f>C5</f>
-        <v>FELBENITRANSS S.A</v>
+        <v>German Masabanda</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="9"/>
@@ -1063,7 +1063,7 @@
       <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1082,23 +1082,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v>DOS</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>DOS MIL</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>DOS MIL</v>
+        <v/>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1113,19 +1113,19 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>DOS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,A5,IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v/>
+        <v>CIEN</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -1217,7 +1217,7 @@
       <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOS MIL SEISCIENTOS  00/100</v>
+        <v>SEISCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD30AC4-71B7-4145-BBA2-940434F76E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50815A6A-3C69-44EA-A9D1-3195815DCB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,10 +117,10 @@
     <t>SEISCIENTOS</t>
   </si>
   <si>
-    <t>Doscientos     00/100</t>
-  </si>
-  <si>
-    <t>German Masabanda</t>
+    <t xml:space="preserve">FELBENITRANSS S.A </t>
+  </si>
+  <si>
+    <t>Dos mil quinientos treinta y ocho       41/100</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,19 +834,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>200</v>
+        <v>2538.41</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -857,7 +857,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45063</v>
+        <v>45064</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +920,7 @@
       </c>
       <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>200</v>
+        <v>2538.41</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
       </c>
       <c r="C5" s="41" t="str">
         <f>Hoja1!B1</f>
-        <v>German Masabanda</v>
+        <v xml:space="preserve">FELBENITRANSS S.A </v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="B9" s="46" t="str">
         <f>C5</f>
-        <v>German Masabanda</v>
+        <v xml:space="preserve">FELBENITRANSS S.A </v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="9"/>
@@ -1063,7 +1063,7 @@
       <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>200</v>
+        <v>2538.41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1082,23 +1082,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>200</v>
+        <v>2538.41</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v/>
+        <v>DOS</v>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>DOS MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>DOS MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1113,19 +1113,19 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>200</v>
+        <v>538.40999999999985</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>DOS</v>
+        <v>QUINIENTOS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,A5,IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>CIEN</v>
+        <v>QUINIENTOS</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -1140,23 +1140,23 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>38.409999999999854</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>TREINTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>TREINTA Y OCHO</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>TREINTA Y OCHO</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1169,19 +1169,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>8.4099999999998545</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE",""))))))))</f>
-        <v/>
+        <v>OCHO</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1198,11 +1198,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0</v>
+        <v>0.40999999999985448</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>0</v>
+        <v>40.999999999985448</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1217,7 +1217,7 @@
       <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>SEISCIENTOS  00/100</v>
+        <v>DOS MIL SEISCIENTOS TREINTA Y OCHO  41/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50815A6A-3C69-44EA-A9D1-3195815DCB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -114,19 +108,13 @@
     <t>PAGO DE PLAN DE CELULAR DE LA OFICINA DE 2 MESES</t>
   </si>
   <si>
-    <t>SEISCIENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FELBENITRANSS S.A </t>
-  </si>
-  <si>
-    <t>Dos mil quinientos treinta y ocho       41/100</t>
+    <t>ADESGAE CIA LTDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -540,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,26 +561,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,23 +596,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,11 +771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,19 +788,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>2538.41</v>
+        <v>2778.76</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>29</v>
+      <c r="B2" t="str">
+        <f>Hoja3!E9</f>
+        <v>DOS MIL SETECIENTOS SETENTA Y OCHO  76/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -857,7 +812,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45064</v>
+        <v>45068</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
@@ -920,7 +875,7 @@
       </c>
       <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>2538.41</v>
+        <v>2778.76</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,7 +885,7 @@
       </c>
       <c r="C5" s="41" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">FELBENITRANSS S.A </v>
+        <v>ADESGAE CIA LTDA</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -966,7 +921,7 @@
       </c>
       <c r="B9" s="46" t="str">
         <f>C5</f>
-        <v xml:space="preserve">FELBENITRANSS S.A </v>
+        <v>ADESGAE CIA LTDA</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="9"/>
@@ -1044,11 +999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1018,7 @@
       <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>2538.41</v>
+        <v>2778.76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1082,7 +1037,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>2538.41</v>
+        <v>2778.76</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1113,22 +1068,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>538.40999999999985</v>
+        <v>778.76000000000022</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>QUINIENTOS</v>
+        <v>SETE</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(C5=0,"",IF(C6=0,IF(C7=0,A5,IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>QUINIENTOS</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
+        <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
+        <v>SETECIENTOS</v>
+      </c>
+      <c r="G5" t="str">
+        <f>E5</f>
+        <v>SETECIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1140,23 +1096,23 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>38.409999999999854</v>
+        <v>78.760000000000218</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>TREINTA</v>
+        <v>SETENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>TREINTA Y OCHO</v>
+        <v>SETENTA Y OCHO</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>TREINTA Y OCHO</v>
+        <v>SETENTA Y OCHO</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1169,7 +1125,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>8.4099999999998545</v>
+        <v>8.7600000000002183</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
@@ -1181,7 +1137,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1198,11 +1154,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0.40999999999985448</v>
+        <v>0.76000000000021828</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>40.999999999985448</v>
+        <v>76.000000000021828</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1217,7 +1173,7 @@
       <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOS MIL SEISCIENTOS TREINTA Y OCHO  41/100</v>
+        <v>DOS MIL SETECIENTOS SETENTA Y OCHO  76/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9265A60-544C-4555-957E-586FC9305B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -108,13 +114,13 @@
     <t>PAGO DE PLAN DE CELULAR DE LA OFICINA DE 2 MESES</t>
   </si>
   <si>
-    <t>ADESGAE CIA LTDA</t>
+    <t xml:space="preserve">CRISTIAN ABRIL </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -528,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,9 +567,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,6 +619,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -771,11 +811,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,13 +835,13 @@
       <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>2778.76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>DOS MIL SETECIENTOS SETENTA Y OCHO  76/100</v>
+        <v>DOSCIENTOS  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -812,7 +852,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45068</v>
+        <v>45077</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
@@ -875,7 +915,7 @@
       </c>
       <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>2778.76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -885,7 +925,7 @@
       </c>
       <c r="C5" s="41" t="str">
         <f>Hoja1!B1</f>
-        <v>ADESGAE CIA LTDA</v>
+        <v xml:space="preserve">CRISTIAN ABRIL </v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -921,7 +961,7 @@
       </c>
       <c r="B9" s="46" t="str">
         <f>C5</f>
-        <v>ADESGAE CIA LTDA</v>
+        <v xml:space="preserve">CRISTIAN ABRIL </v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="9"/>
@@ -999,7 +1039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1018,7 +1058,7 @@
       <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>2778.76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1037,23 +1077,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>2778.76</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v>DOS</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>DOS MIL</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>DOS MIL</v>
+        <v/>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1068,23 +1108,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>778.76000000000022</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>SETE</v>
+        <v>DOS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>SETECIENTOS</v>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>SETECIENTOS</v>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1096,23 +1136,23 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>78.760000000000218</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>SETENTA</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>SETENTA Y OCHO</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>SETENTA Y OCHO</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1125,19 +1165,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>8.7600000000002183</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE",""))))))))</f>
-        <v>OCHO</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1154,11 +1194,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0.76000000000021828</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>76.000000000021828</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1173,7 +1213,7 @@
       <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOS MIL SETECIENTOS SETENTA Y OCHO  76/100</v>
+        <v>DOSCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9265A60-544C-4555-957E-586FC9305B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31805AF-CF3E-47DA-B118-12A8CA1FDEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <t>PAGO DE PLAN DE CELULAR DE LA OFICINA DE 2 MESES</t>
   </si>
   <si>
-    <t xml:space="preserve">CRISTIAN ABRIL </t>
+    <t xml:space="preserve">MARIA MOYA </t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,13 +835,13 @@
       <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>200</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>DOSCIENTOS  00/100</v>
+        <v>TRESCIENTOS SETENTA Y CINCO  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -852,7 +852,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45078</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +915,7 @@
       </c>
       <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>200</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
       </c>
       <c r="C5" s="41" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">CRISTIAN ABRIL </v>
+        <v xml:space="preserve">MARIA MOYA </v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -961,7 +961,7 @@
       </c>
       <c r="B9" s="46" t="str">
         <f>C5</f>
-        <v xml:space="preserve">CRISTIAN ABRIL </v>
+        <v xml:space="preserve">MARIA MOYA </v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="9"/>
@@ -1058,7 +1058,7 @@
       <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>200</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1108,23 +1108,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>DOS</v>
+        <v>TRES</v>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>DOSCIENTOS</v>
+        <v>TRESCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>DOSCIENTOS</v>
+        <v>TRESCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1136,23 +1136,23 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>SETENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>SETENTA Y CINCO</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>SETENTA Y CINCO</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1165,19 +1165,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE",""))))))))</f>
-        <v/>
+        <v>CINCO</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1213,7 +1213,7 @@
       <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOSCIENTOS  00/100</v>
+        <v>TRESCIENTOS SETENTA Y CINCO  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9265A60-544C-4555-957E-586FC9305B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -48,9 +42,6 @@
     <t>Cheque:</t>
   </si>
   <si>
-    <t>Socio:</t>
-  </si>
-  <si>
     <t>CI:</t>
   </si>
   <si>
@@ -111,16 +102,34 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>PAGO DE PLAN DE CELULAR DE LA OFICINA DE 2 MESES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISTIAN ABRIL </t>
+    <t>KAREN IDROVO</t>
+  </si>
+  <si>
+    <t>SUELDO</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>IESS</t>
+  </si>
+  <si>
+    <t>EDUARDO BAYAS</t>
+  </si>
+  <si>
+    <t>Colaborador:</t>
+  </si>
+  <si>
+    <t>servicios prestados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -395,9 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -473,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,26 +576,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,23 +611,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,11 +786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,32 +802,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>DOSCIENTOS  00/100</v>
+        <v>CIEN  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45078</v>
       </c>
     </row>
   </sheetData>
@@ -866,90 +841,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="A1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
-        <v>45056</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="48">
+        <v>45078</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22">
-        <v>1251</v>
+      <c r="F3" s="21">
+        <v>1295</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="23">
-        <f>Hoja1!G1</f>
-        <v>200</v>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="22">
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="41" t="str">
-        <f>Hoja1!B1</f>
-        <v xml:space="preserve">CRISTIAN ABRIL </v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <f>SUM(F9:F48)</f>
-        <v>60</v>
+        <v>375</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -957,66 +930,66 @@
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="46" t="str">
+        <v>31</v>
+      </c>
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v xml:space="preserve">CRISTIAN ABRIL </v>
-      </c>
-      <c r="C9" s="46"/>
+        <v>EDUARDO BAYAS</v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="29">
-        <v>60</v>
+      <c r="E9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="28">
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="31"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="30"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="43"/>
+      <c r="A12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28" t="s">
-        <v>7</v>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
+        <v>6</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="31"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1034,16 +1007,16 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="H7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,17 +1024,17 @@
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="47"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J3">
         <f>I6-K3</f>
         <v>216</v>
@@ -1071,13 +1044,13 @@
         <v>744</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1102,29 +1075,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>DOS</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>DOSCIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>DOSCIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1133,7 +1106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
         <v>0</v>
@@ -1162,7 +1135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
         <v>0</v>
@@ -1191,7 +1164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
         <v>0</v>
@@ -1203,76 +1176,108 @@
       <c r="K8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8">
+        <v>267.22000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOSCIENTOS  00/100</v>
+        <v>CIEN  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <v>80.349999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K11">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <f>N8-N9-N10</f>
+        <v>165.00000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>80.349999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f>250-85</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16">
         <v>50</v>
@@ -1283,7 +1288,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17">
         <v>30</v>
@@ -1294,7 +1299,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18">
         <v>20</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31805AF-CF3E-47DA-B118-12A8CA1FDEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AFD262-1241-4A4D-8A76-0357259BE257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <t>PAGO DE PLAN DE CELULAR DE LA OFICINA DE 2 MESES</t>
   </si>
   <si>
-    <t xml:space="preserve">MARIA MOYA </t>
+    <t>CRISTIAN ABRIL</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,13 +835,13 @@
       <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>TRESCIENTOS SETENTA Y CINCO  00/100</v>
+        <v>CIEN  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -852,7 +852,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45078</v>
+        <v>45079</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +915,7 @@
       </c>
       <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
       </c>
       <c r="C5" s="41" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">MARIA MOYA </v>
+        <v>CRISTIAN ABRIL</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -961,7 +961,7 @@
       </c>
       <c r="B9" s="46" t="str">
         <f>C5</f>
-        <v xml:space="preserve">MARIA MOYA </v>
+        <v>CRISTIAN ABRIL</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="9"/>
@@ -1058,7 +1058,7 @@
       <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1108,23 +1108,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>TRES</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>TRESCIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>TRESCIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1136,23 +1136,23 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>SETENTA</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>SETENTA Y CINCO</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>SETENTA Y CINCO</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1165,19 +1165,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE",""))))))))</f>
-        <v>CINCO</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1213,7 +1213,7 @@
       <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>TRESCIENTOS SETENTA Y CINCO  00/100</v>
+        <v>CIEN  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AFD262-1241-4A4D-8A76-0357259BE257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38540000-0E73-4B25-8744-11F19AA51E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>CRISTIAN ABRIL</t>
+  </si>
+  <si>
+    <t>DIEZ</t>
   </si>
 </sst>
 </file>
@@ -814,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,13 +838,13 @@
       <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>100</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CIEN  00/100</v>
+        <v>MIL OCHOCIENTOS CUARENTA Y UNO  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -852,7 +855,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45082</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +918,7 @@
       </c>
       <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>100</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1042,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1061,7 @@
       <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>100</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1077,11 +1080,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>100</v>
+        <v>1841</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1089,11 +1092,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1108,23 +1111,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>100</v>
+        <v>841</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>OCHO</v>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>CIEN</v>
+        <v>OCHOCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIEN</v>
+        <v>OCHOCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1134,25 +1137,28 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>CUARENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>CUARENTA Y UNO</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>CUARENTA Y UNO</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1165,26 +1171,26 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE",""))))))))</f>
-        <v/>
+        <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
+        <v>UNO</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f>IF(C6=0,D7,IF(C6=1,"",""))</f>
+        <f>IF(C6=0,D7,IF(C6=1,IF(C7=0,"DIEZ",IF(C7=1,"ONCE","")),""))</f>
         <v/>
       </c>
       <c r="K7">
@@ -1213,7 +1219,7 @@
       <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CIEN  00/100</v>
+        <v>MIL OCHOCIENTOS CUARENTA Y UNO  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38540000-0E73-4B25-8744-11F19AA51E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF08546-C7CD-48B4-AE35-1ECF240119C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,13 +838,13 @@
       <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>1841</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>MIL OCHOCIENTOS CUARENTA Y UNO  00/100</v>
+        <v>CIEN  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -855,7 +855,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45082</v>
+        <v>45084</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +918,7 @@
       </c>
       <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>1841</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1061,7 +1061,7 @@
       <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>1841</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>1841</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1092,11 +1092,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>MIL</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>MIL</v>
+        <v/>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1111,23 +1111,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>841</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>OCHO</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>OCHOCIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>OCHOCIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1142,23 +1142,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>CUARENTA</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>CUARENTA Y UNO</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>CUARENTA Y UNO</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1171,19 +1171,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v>UNO</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1219,7 +1219,7 @@
       <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>MIL OCHOCIENTOS CUARENTA Y UNO  00/100</v>
+        <v>CIEN  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF08546-C7CD-48B4-AE35-1ECF240119C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC07F22-CCC1-41CD-AEA7-A09DEBB3C5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,10 +114,10 @@
     <t>PAGO DE PLAN DE CELULAR DE LA OFICINA DE 2 MESES</t>
   </si>
   <si>
-    <t>CRISTIAN ABRIL</t>
-  </si>
-  <si>
     <t>DIEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESGAE CIA LTDA </t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,20 +831,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>100</v>
+        <v>3931.01</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CIEN  00/100</v>
+        <v>TRES MIL NOVECIENTOS TREINTA Y UNO  01/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>100</v>
+        <v>3931.01</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -928,7 +928,7 @@
       </c>
       <c r="C5" s="41" t="str">
         <f>Hoja1!B1</f>
-        <v>CRISTIAN ABRIL</v>
+        <v xml:space="preserve">ADESGAE CIA LTDA </v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -964,7 +964,7 @@
       </c>
       <c r="B9" s="46" t="str">
         <f>C5</f>
-        <v>CRISTIAN ABRIL</v>
+        <v xml:space="preserve">ADESGAE CIA LTDA </v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="9"/>
@@ -1061,7 +1061,7 @@
       <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>100</v>
+        <v>3931.01</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1080,23 +1080,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>100</v>
+        <v>3931.01</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v/>
+        <v>TRES</v>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>TRES MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>TRES MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1111,23 +1111,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>100</v>
+        <v>931.01000000000022</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>NOVE</v>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>CIEN</v>
+        <v>NOVECIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIEN</v>
+        <v>NOVECIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1138,27 +1138,27 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>31.010000000000218</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>TREINTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>TREINTA Y UNO</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>TREINTA Y UNO</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1171,19 +1171,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>1.0100000000002183</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v/>
+        <v>UNO</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1200,11 +1200,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0</v>
+        <v>1.0000000000218279E-2</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>0</v>
+        <v>1.0000000000218279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1219,7 +1219,7 @@
       <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CIEN  00/100</v>
+        <v>TRES MIL NOVECIENTOS TREINTA Y UNO  01/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC07F22-CCC1-41CD-AEA7-A09DEBB3C5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC27E6E-460D-414B-93B8-485F854238FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>DIEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">ADESGAE CIA LTDA </t>
+    <t xml:space="preserve">Maria Moya </t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,13 +838,13 @@
       <c r="E1" s="35"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>3931.01</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>TRES MIL NOVECIENTOS TREINTA Y UNO  01/100</v>
+        <v>CIEN  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -855,7 +855,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +918,7 @@
       </c>
       <c r="F4" s="23">
         <f>Hoja1!G1</f>
-        <v>3931.01</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -928,7 +928,7 @@
       </c>
       <c r="C5" s="41" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">ADESGAE CIA LTDA </v>
+        <v xml:space="preserve">Maria Moya </v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -964,7 +964,7 @@
       </c>
       <c r="B9" s="46" t="str">
         <f>C5</f>
-        <v xml:space="preserve">ADESGAE CIA LTDA </v>
+        <v xml:space="preserve">Maria Moya </v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="9"/>
@@ -1061,7 +1061,7 @@
       <c r="B1" s="47"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>3931.01</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1080,23 +1080,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>3931.01</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v>TRES</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>TRES MIL</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>TRES MIL</v>
+        <v/>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1111,23 +1111,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>931.01000000000022</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>NOVE</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>NOVECIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>NOVECIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1142,23 +1142,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>31.010000000000218</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>TREINTA</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>TREINTA Y UNO</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>TREINTA Y UNO</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1171,19 +1171,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>1.0100000000002183</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v>UNO</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1200,11 +1200,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>1.0000000000218279E-2</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>1.0000000000218279</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1219,7 +1219,7 @@
       <c r="D9" s="48"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>TRES MIL NOVECIENTOS TREINTA Y UNO  01/100</v>
+        <v>CIEN  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC27E6E-460D-414B-93B8-485F854238FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1862BC2D-394C-4A35-9706-DA2DF58C44BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -111,13 +111,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>PAGO DE PLAN DE CELULAR DE LA OFICINA DE 2 MESES</t>
-  </si>
-  <si>
     <t>DIEZ</t>
   </si>
   <si>
     <t xml:space="preserve">Maria Moya </t>
+  </si>
+  <si>
+    <t>Jenny Medina</t>
+  </si>
+  <si>
+    <t>garage</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -388,9 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,29 +830,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CIEN  00/100</v>
+        <v>CIENTO CINCUENTA  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
         <v>45085</v>
@@ -870,69 +870,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
-        <v>45056</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="13">
+        <f ca="1">TODAY()</f>
+        <v>45085</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22">
-        <v>1251</v>
+      <c r="F3" s="21">
+        <v>1311</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="41" t="str">
-        <f>Hoja1!B1</f>
-        <v xml:space="preserve">Maria Moya </v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -940,96 +940,234 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <f>SUM(F9:F48)</f>
-        <v>60</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+        <v>1611</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="46" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v xml:space="preserve">Maria Moya </v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="24" t="s">
+        <v>Jenny Medina</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="29">
-        <v>60</v>
+      <c r="F9" s="28">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="43"/>
+      <c r="A12" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="31"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <f ca="1">TODAY()</f>
+        <v>45085</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="21">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="22">
+        <f>Hoja1!G19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="33">
+        <f>SUM(F27:F66)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="45" t="str">
+        <f>C23</f>
+        <v>Jenny Medina</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
@@ -1055,13 +1193,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1080,7 +1218,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1111,7 +1249,7 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
@@ -1123,11 +1261,11 @@
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>CIEN</v>
+        <v>CIENTO</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIEN</v>
+        <v>CIENTO</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1138,27 +1276,27 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>CINCUENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>CINCUENTA</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>CINCUENTA</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1183,7 +1321,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1211,15 +1349,15 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CIEN  00/100</v>
+        <v>CIENTO CINCUENTA  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1862BC2D-394C-4A35-9706-DA2DF58C44BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -114,19 +108,19 @@
     <t>DIEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Maria Moya </t>
-  </si>
-  <si>
     <t>Jenny Medina</t>
   </si>
   <si>
     <t>garage</t>
+  </si>
+  <si>
+    <t>FELBENITRANSS S.A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -441,6 +435,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,10 +450,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -467,9 +464,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,26 +564,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,23 +599,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,11 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,20 +791,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>150</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CIENTO CINCUENTA  00/100</v>
+        <v>TRES MIL  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -855,7 +815,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45091</v>
       </c>
     </row>
   </sheetData>
@@ -869,25 +829,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection sqref="A1:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -896,7 +856,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45091</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -919,7 +879,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>150</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,11 +887,11 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -940,13 +900,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -962,11 +922,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -993,17 +953,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="42"/>
+      <c r="A12" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1022,15 +982,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1039,7 +999,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45091</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1070,11 +1030,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="C23" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1083,13 +1043,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1103,11 +1063,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1134,17 +1094,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="42"/>
+      <c r="A30" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1163,16 +1123,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1180,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1199,7 +1159,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>150</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,23 +1178,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v/>
+        <v>TRES</v>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>TRES MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>TRES MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1249,11 +1209,11 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
@@ -1261,11 +1221,11 @@
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>CIENTO</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIENTO</v>
+        <v/>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1280,23 +1240,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>CINCUENTA</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>CINCUENTA</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>CINCUENTA</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1321,7 +1281,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1357,7 +1317,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CIENTO CINCUENTA  00/100</v>
+        <v>TRES MIL  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -114,7 +114,7 @@
     <t>garage</t>
   </si>
   <si>
-    <t>FELBENITRANSS S.A</t>
+    <t>Mazabanda German</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,13 +798,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>3000</v>
+        <v>1082.56</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>TRES MIL  00/100</v>
+        <v>MIL OCHENTA Y DOS  56/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -815,7 +815,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +856,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -879,7 +879,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>3000</v>
+        <v>1082.56</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1159,7 +1159,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>3000</v>
+        <v>1082.56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1178,23 +1178,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>3000</v>
+        <v>1082.56</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v>TRES</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>TRES MIL</v>
+        <v>MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>TRES MIL</v>
+        <v>MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>0</v>
+        <v>82.559999999999945</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
@@ -1240,23 +1240,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>82.559999999999945</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>OCHENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>OCHENTA Y DOS</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>OCHENTA Y DOS</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1269,19 +1269,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>2.5599999999999454</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v/>
+        <v>DOS</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1298,11 +1298,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0</v>
+        <v>0.55999999999994543</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>0</v>
+        <v>55.999999999994543</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1317,7 +1317,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>TRES MIL  00/100</v>
+        <v>MIL OCHENTA Y DOS  56/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B481049-ED91-4984-AD3A-3D3F2372545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -114,13 +120,13 @@
     <t>garage</t>
   </si>
   <si>
-    <t>FELBENITRANSS S.A</t>
+    <t xml:space="preserve">Cristian Abril </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -435,35 +441,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,7 +537,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,9 +570,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,6 +622,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,11 +814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,13 +838,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>TRES MIL  00/100</v>
+        <v>TRESCIENTOS  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -815,7 +855,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -839,15 +879,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -856,7 +896,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -879,7 +919,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -887,11 +927,11 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -900,13 +940,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -922,11 +962,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -953,17 +993,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -982,15 +1022,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -999,7 +1039,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1030,11 +1070,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1043,13 +1083,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1063,11 +1103,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1094,17 +1134,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1123,16 +1163,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1140,7 +1180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1159,7 +1199,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1178,23 +1218,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v>TRES</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>TRES MIL</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>TRES MIL</v>
+        <v/>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1209,23 +1249,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>TRES</v>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v/>
+        <v>TRESCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v/>
+        <v>TRESCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1317,7 +1357,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>TRES MIL  00/100</v>
+        <v>TRESCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B481049-ED91-4984-AD3A-3D3F2372545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B01252-3675-48E5-984A-8E185A52C41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>garage</t>
   </si>
   <si>
-    <t xml:space="preserve">Cristian Abril </t>
+    <t xml:space="preserve">Jaime Abril </t>
   </si>
 </sst>
 </file>
@@ -441,6 +441,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,10 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -467,9 +470,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,7 +818,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,13 +838,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>300</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>TRESCIENTOS  00/100</v>
+        <v>CIENTO SETENTA  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -879,15 +879,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -919,7 +919,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>300</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,11 +927,11 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -940,13 +940,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -962,11 +962,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -993,17 +993,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1022,15 +1022,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1070,11 +1070,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1083,13 +1083,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1103,11 +1103,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1134,17 +1134,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1163,16 +1163,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1199,7 +1199,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>300</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1249,23 +1249,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>TRES</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>TRESCIENTOS</v>
+        <v>CIENTO</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>TRESCIENTOS</v>
+        <v>CIENTO</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1280,23 +1280,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>SETENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>SETENTA</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>SETENTA</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1357,7 +1357,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>TRESCIENTOS  00/100</v>
+        <v>CIENTO SETENTA  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B01252-3675-48E5-984A-8E185A52C41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3F4971-FA2E-4DC4-BE75-B6515C6357C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>garage</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaime Abril </t>
+    <t>MABELL MECIAS</t>
   </si>
 </sst>
 </file>
@@ -441,35 +441,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,7 +818,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,13 +838,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CIENTO SETENTA  00/100</v>
+        <v>CIEN  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -855,7 +855,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45097</v>
       </c>
     </row>
   </sheetData>
@@ -879,15 +879,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -919,7 +919,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,11 +927,11 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -940,13 +940,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -962,11 +962,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -993,17 +993,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1022,15 +1022,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1070,11 +1070,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1083,13 +1083,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1103,11 +1103,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1134,17 +1134,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1163,16 +1163,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1199,7 +1199,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
@@ -1261,11 +1261,11 @@
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>CIENTO</v>
+        <v>CIEN</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIENTO</v>
+        <v>CIEN</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1280,23 +1280,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>SETENTA</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>SETENTA</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>SETENTA</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1357,7 +1357,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CIENTO SETENTA  00/100</v>
+        <v>CIEN  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B01252-3675-48E5-984A-8E185A52C41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -120,13 +114,13 @@
     <t>garage</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaime Abril </t>
+    <t>MABELL MECIAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -441,35 +435,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,26 +564,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,23 +599,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,11 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,13 +798,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CIENTO SETENTA  00/100</v>
+        <v>CIENTO VEINTE  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -855,7 +815,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45098</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -879,15 +839,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -896,7 +856,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45098</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -919,7 +879,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,11 +887,11 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -940,13 +900,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -962,11 +922,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -993,17 +953,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1022,15 +982,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1039,7 +999,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45098</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1070,11 +1030,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1083,13 +1043,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1103,11 +1063,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1134,17 +1094,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1163,16 +1123,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1180,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1199,7 +1159,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,7 +1178,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1249,7 +1209,7 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
@@ -1280,23 +1240,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>SETENTA</v>
+        <v>VEINTE</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>SETENTA</v>
+        <v>VEINTE</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>SETENTA</v>
+        <v>VEINTE</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1321,7 +1281,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1357,7 +1317,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CIENTO SETENTA  00/100</v>
+        <v>CIENTO VEINTE  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F4842B-6360-48FE-A7EB-67A80E8E7AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -111,16 +117,22 @@
     <t>Jenny Medina</t>
   </si>
   <si>
-    <t>garage</t>
-  </si>
-  <si>
-    <t>MABELL MECIAS</t>
+    <t xml:space="preserve"> TRANSLOTAP S.A.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>=A1</t>
+  </si>
+  <si>
+    <t>servicio de transporte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -435,6 +447,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,10 +462,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -461,9 +476,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,9 +576,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,6 +628,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,11 +820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,22 +837,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CIENTO VEINTE  00/100</v>
+        <v>QUINIENTOS  00/100</v>
       </c>
       <c r="F2" s="1"/>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
@@ -829,25 +878,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:G33"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -863,7 +912,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="21">
-        <v>1311</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -879,7 +928,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -887,11 +936,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="37" t="str">
+        <f>Hoja1!B1</f>
+        <v xml:space="preserve"> TRANSLOTAP S.A.</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -900,19 +950,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="33">
-        <f>SUM(F9:F48)</f>
-        <v>1611</v>
+        <f>F9</f>
+        <v>500</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -922,17 +972,17 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v>Jenny Medina</v>
-      </c>
-      <c r="C9" s="45"/>
+        <v xml:space="preserve"> TRANSLOTAP S.A.</v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="28">
-        <v>150</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -953,17 +1003,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="42"/>
+      <c r="A12" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -982,15 +1032,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1006,7 +1056,8 @@
         <v>4</v>
       </c>
       <c r="F21" s="21">
-        <v>1311</v>
+        <f>F3</f>
+        <v>1335</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1030,11 +1081,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1043,19 +1094,19 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="33">
-        <f>SUM(F27:F66)</f>
-        <v>150</v>
+        <f>F27</f>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1063,17 +1114,18 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="28">
-        <v>150</v>
+        <f>F9</f>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1094,17 +1146,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="42"/>
+      <c r="A30" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1123,16 +1175,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1140,16 +1192,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1159,7 +1212,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1178,7 +1231,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1209,23 +1262,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>QUINIENTOS</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>CIENTO</v>
+        <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
+        <v>QUINIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIENTO</v>
+        <v>QUINIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1240,23 +1293,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1281,7 +1334,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1317,7 +1370,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CIENTO VEINTE  00/100</v>
+        <v>QUINIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F4842B-6360-48FE-A7EB-67A80E8E7AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CADD8D-199D-4524-8A7F-092DD8ED90A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -117,16 +117,13 @@
     <t>Jenny Medina</t>
   </si>
   <si>
-    <t xml:space="preserve"> TRANSLOTAP S.A.</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>=A1</t>
   </si>
   <si>
     <t>servicio de transporte</t>
+  </si>
+  <si>
+    <t>German Mazabanda</t>
   </si>
 </sst>
 </file>
@@ -447,35 +444,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,25 +834,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>500</v>
+        <v>667.91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>QUINIENTOS  00/100</v>
+        <v>SEISCIENTOS SESENTA Y SIETE  91/100</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
@@ -864,7 +858,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
     </row>
   </sheetData>
@@ -888,15 +882,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -905,7 +899,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -928,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>500</v>
+        <v>667.91</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -936,12 +930,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve"> TRANSLOTAP S.A.</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v>German Mazabanda</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -950,13 +944,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -972,11 +966,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v xml:space="preserve"> TRANSLOTAP S.A.</v>
-      </c>
-      <c r="C9" s="41"/>
+        <v>German Mazabanda</v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -1003,17 +997,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="43"/>
+      <c r="A12" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1032,15 +1026,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1049,7 +1043,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1081,11 +1075,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1094,13 +1088,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1114,11 +1108,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1146,17 +1140,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="43"/>
+      <c r="A30" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1175,16 +1169,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1212,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>500</v>
+        <v>667.91</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1231,7 +1225,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>500</v>
+        <v>667.91</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1262,23 +1256,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>500</v>
+        <v>667.91</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>QUINIENTOS</v>
+        <v>SEIS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>QUINIENTOS</v>
+        <v>SEISCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>QUINIENTOS</v>
+        <v>SEISCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1293,23 +1287,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>67.909999999999968</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>SESENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>SESENTA Y SIETE</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>SESENTA Y SIETE</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1322,19 +1316,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>7.9099999999999682</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v/>
+        <v>SIETE</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1351,11 +1345,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0</v>
+        <v>0.90999999999996817</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>0</v>
+        <v>90.999999999996817</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1370,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>QUINIENTOS  00/100</v>
+        <v>SEISCIENTOS SESENTA Y SIETE  91/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -114,7 +114,7 @@
     <t>garage</t>
   </si>
   <si>
-    <t>MABELL MECIAS</t>
+    <t xml:space="preserve">Alfredo Sandoval </t>
   </si>
 </sst>
 </file>
@@ -435,6 +435,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,10 +450,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -461,9 +464,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,7 +778,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,13 +798,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CIENTO VEINTE  00/100</v>
+        <v>MIL  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -839,15 +839,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -879,7 +879,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -887,11 +887,11 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -900,13 +900,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -922,11 +922,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -953,17 +953,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -982,15 +982,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1030,11 +1030,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1043,13 +1043,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1063,11 +1063,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1094,17 +1094,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1123,16 +1123,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1159,7 +1159,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1178,11 +1178,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1190,11 +1190,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1209,11 +1209,11 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
@@ -1221,11 +1221,11 @@
       </c>
       <c r="E5" t="str">
         <f>IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))))</f>
-        <v>CIENTO</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIENTO</v>
+        <v/>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1240,23 +1240,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1317,7 +1317,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CIENTO VEINTE  00/100</v>
+        <v>MIL  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CADD8D-199D-4524-8A7F-092DD8ED90A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -123,13 +117,13 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t>German Mazabanda</t>
+    <t xml:space="preserve">Julio Zamora </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -444,6 +438,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,10 +453,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -470,9 +467,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,26 +567,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,23 +602,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,11 +777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +801,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>667.91</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>SEISCIENTOS SESENTA Y SIETE  91/100</v>
+        <v>DOSCIENTOS CINCUENTA  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -858,7 +818,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45099</v>
+        <v>45108</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -882,15 +842,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -899,7 +859,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45099</v>
+        <v>45108</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -922,7 +882,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>667.91</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,12 +890,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v>German Mazabanda</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+        <v xml:space="preserve">Julio Zamora </v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,13 +904,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -966,11 +926,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v>German Mazabanda</v>
-      </c>
-      <c r="C9" s="45"/>
+        <v xml:space="preserve">Julio Zamora </v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -997,17 +957,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1026,15 +986,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,7 +1003,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45099</v>
+        <v>45108</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1075,11 +1035,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1048,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1068,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1140,17 +1100,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1169,16 +1129,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1186,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1206,7 +1166,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>667.91</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,7 +1185,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>667.91</v>
+        <v>250</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1256,23 +1216,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>667.91</v>
+        <v>250</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>SEIS</v>
+        <v>DOS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>SEISCIENTOS</v>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>SEISCIENTOS</v>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1287,23 +1247,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>67.909999999999968</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>SESENTA</v>
+        <v>CINCUENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>SESENTA Y SIETE</v>
+        <v>CINCUENTA</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>SESENTA Y SIETE</v>
+        <v>CINCUENTA</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1316,19 +1276,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>7.9099999999999682</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v>SIETE</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1345,11 +1305,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0.90999999999996817</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>90.999999999996817</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1364,7 +1324,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>SEISCIENTOS SESENTA Y SIETE  91/100</v>
+        <v>DOSCIENTOS CINCUENTA  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBE2DC-3316-4D65-81FA-2DCE8985FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -117,13 +123,13 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">Julio Zamora </t>
+    <t xml:space="preserve">NATHALY MECIAS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -534,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,9 +573,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,6 +625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -777,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>DOSCIENTOS CINCUENTA  00/100</v>
+        <v>MIL  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -818,7 +858,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45108</v>
+        <v>45170</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -859,7 +899,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -882,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -892,7 +932,7 @@
       </c>
       <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">Julio Zamora </v>
+        <v xml:space="preserve">NATHALY MECIAS </v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -928,7 +968,7 @@
       </c>
       <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v xml:space="preserve">Julio Zamora </v>
+        <v xml:space="preserve">NATHALY MECIAS </v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="8"/>
@@ -1003,7 +1043,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1146,11 +1186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1185,11 +1225,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1197,11 +1237,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1216,23 +1256,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>DOS</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>DOSCIENTOS</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>DOSCIENTOS</v>
+        <v/>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1247,23 +1287,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(C6=1,"",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>CINCUENTA</v>
+        <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>CINCUENTA</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>CINCUENTA</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1288,10 +1328,10 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E17=7,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
+        <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
         <v/>
       </c>
       <c r="G7" t="str">
@@ -1324,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOSCIENTOS CINCUENTA  00/100</v>
+        <v>MIL  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBE2DC-3316-4D65-81FA-2DCE8985FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28527F65-EA28-4E51-ACF4-CB278FE4B29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">NATHALY MECIAS </t>
+    <t>COTRANPECC CIA LTDA.</t>
   </si>
 </sst>
 </file>
@@ -444,35 +444,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>1000</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>MIL  00/100</v>
+        <v>CUATROCIENTOS NOVENTA  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -882,15 +882,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -922,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>1000</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,12 +930,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">NATHALY MECIAS </v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v>COTRANPECC CIA LTDA.</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,13 +944,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -966,11 +966,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v xml:space="preserve">NATHALY MECIAS </v>
-      </c>
-      <c r="C9" s="41"/>
+        <v>COTRANPECC CIA LTDA.</v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -997,17 +997,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1026,15 +1026,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1075,11 +1075,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1108,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1140,17 +1140,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1169,16 +1169,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>1000</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,11 +1225,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>MIL</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>MIL</v>
+        <v/>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1256,23 +1256,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>CUATRO</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v/>
+        <v>CUATROCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v/>
+        <v>CUATROCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1287,23 +1287,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>NOVENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>NOVENTA</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>NOVENTA</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1364,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>MIL  00/100</v>
+        <v>CUATROCIENTOS NOVENTA  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28527F65-EA28-4E51-ACF4-CB278FE4B29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D6B457-A810-4894-A232-E9B7168C46D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t>COTRANPECC CIA LTDA.</t>
+    <t xml:space="preserve">German Masabanda </t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>490</v>
+        <v>428.58</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CUATROCIENTOS NOVENTA  00/100</v>
+        <v>CUATROCIENTOS VENTIOCHO  58/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -858,7 +858,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45170</v>
+        <v>45173</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +899,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -922,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>490</v>
+        <v>428.58</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -932,7 +932,7 @@
       </c>
       <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v>COTRANPECC CIA LTDA.</v>
+        <v xml:space="preserve">German Masabanda </v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v>COTRANPECC CIA LTDA.</v>
+        <v xml:space="preserve">German Masabanda </v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="8"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1206,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>490</v>
+        <v>428.58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>490</v>
+        <v>428.58</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>490</v>
+        <v>428.58</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
@@ -1287,23 +1287,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>90</v>
+        <v>28.579999999999984</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>NOVENTA</v>
+        <v>VEINTE</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>NOVENTA</v>
+        <v>VENTIOCHO</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>NOVENTA</v>
+        <v>VENTIOCHO</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1316,19 +1316,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>8.5799999999999841</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v/>
+        <v>OCHO</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1345,11 +1345,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0</v>
+        <v>0.57999999999998408</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>0</v>
+        <v>57.999999999998408</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1364,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CUATROCIENTOS NOVENTA  00/100</v>
+        <v>CUATROCIENTOS VENTIOCHO  58/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D6B457-A810-4894-A232-E9B7168C46D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9496E832-ECE7-431F-83FC-6C0A04FE1586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">German Masabanda </t>
+    <t>FELBENITRANSS S.A</t>
   </si>
 </sst>
 </file>
@@ -444,6 +444,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,10 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -470,9 +473,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>428.58</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CUATROCIENTOS VENTIOCHO  58/100</v>
+        <v>DOS MIL  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -858,7 +858,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45173</v>
+        <v>45181</v>
       </c>
     </row>
   </sheetData>
@@ -882,15 +882,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45173</v>
+        <v>45181</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -922,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>428.58</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,12 +930,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">German Masabanda </v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+        <v>FELBENITRANSS S.A</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,13 +944,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -966,11 +966,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v xml:space="preserve">German Masabanda </v>
-      </c>
-      <c r="C9" s="45"/>
+        <v>FELBENITRANSS S.A</v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -997,17 +997,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1026,15 +1026,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45173</v>
+        <v>45181</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1075,11 +1075,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1108,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1140,17 +1140,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1169,16 +1169,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>428.58</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,23 +1225,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>428.58</v>
+        <v>2000</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v/>
+        <v>DOS</v>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>DOS MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>DOS MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1256,23 +1256,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>428.58</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>CUATRO</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>CUATROCIENTOS</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CUATROCIENTOS</v>
+        <v/>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1287,23 +1287,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>28.579999999999984</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>VENTIOCHO</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>VENTIOCHO</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1316,19 +1316,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>8.5799999999999841</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v>OCHO</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1345,11 +1345,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0.57999999999998408</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>57.999999999998408</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1364,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CUATROCIENTOS VENTIOCHO  58/100</v>
+        <v>DOS MIL  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9496E832-ECE7-431F-83FC-6C0A04FE1586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236A540-5503-4C7B-90E0-720F61892EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t>FELBENITRANSS S.A</t>
+    <t>MARCELO ABRIL</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>2000</v>
+        <v>3009.94</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>DOS MIL  00/100</v>
+        <v>TRES MIL NUEVE  94/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -858,7 +858,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45181</v>
+        <v>45183</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +899,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -922,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>2000</v>
+        <v>3009.94</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -932,7 +932,7 @@
       </c>
       <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v>FELBENITRANSS S.A</v>
+        <v>MARCELO ABRIL</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v>FELBENITRANSS S.A</v>
+        <v>MARCELO ABRIL</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="8"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>2000</v>
+        <v>3009.94</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,23 +1225,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>2000</v>
+        <v>3009.94</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v>DOS</v>
+        <v>TRES</v>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>DOS MIL</v>
+        <v>TRES MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>DOS MIL</v>
+        <v>TRES MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>0</v>
+        <v>9.9400000000000546</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>9.9400000000000546</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
@@ -1316,19 +1316,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>9.9400000000000546</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v/>
+        <v>NUEVE</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G7" t="str">
         <f>IF(C6=0,D7,IF(C6=1,IF(C7=0,"DIEZ",IF(C7=1,"ONCE","")),""))</f>
-        <v/>
+        <v>NUEVE</v>
       </c>
       <c r="K7">
         <v>50</v>
@@ -1345,11 +1345,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0</v>
+        <v>0.94000000000005457</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>0</v>
+        <v>94.000000000005457</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1364,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOS MIL  00/100</v>
+        <v>TRES MIL NUEVE  94/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236A540-5503-4C7B-90E0-720F61892EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D65051-90F0-467E-A80C-89928AE022E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t>MARCELO ABRIL</t>
+    <t xml:space="preserve">Jaime Abril </t>
   </si>
 </sst>
 </file>
@@ -444,35 +444,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>3009.94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>TRES MIL NUEVE  94/100</v>
+        <v>CIENTO CINCUENTA  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -882,15 +882,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -922,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>3009.94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,12 +930,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v>MARCELO ABRIL</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v xml:space="preserve">Jaime Abril </v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,13 +944,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -966,11 +966,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v>MARCELO ABRIL</v>
-      </c>
-      <c r="C9" s="41"/>
+        <v xml:space="preserve">Jaime Abril </v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -997,17 +997,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1026,15 +1026,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1075,11 +1075,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1108,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1140,17 +1140,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1169,16 +1169,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>3009.94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,23 +1225,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>3009.94</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v>TRES</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>TRES MIL</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>TRES MIL</v>
+        <v/>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1256,11 +1256,11 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>9.9400000000000546</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
@@ -1268,11 +1268,11 @@
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v/>
+        <v>CIENTO</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v/>
+        <v>CIENTO</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1287,23 +1287,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>9.9400000000000546</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>CINCUENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>CINCUENTA</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>CINCUENTA</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1316,19 +1316,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>9.9400000000000546</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v>NUEVE</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G7" t="str">
         <f>IF(C6=0,D7,IF(C6=1,IF(C7=0,"DIEZ",IF(C7=1,"ONCE","")),""))</f>
-        <v>NUEVE</v>
+        <v/>
       </c>
       <c r="K7">
         <v>50</v>
@@ -1345,11 +1345,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0.94000000000005457</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>94.000000000005457</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1364,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>TRES MIL NUEVE  94/100</v>
+        <v>CIENTO CINCUENTA  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D65051-90F0-467E-A80C-89928AE022E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602F4516-3616-49A7-9782-3BEAEA66CB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaime Abril </t>
+    <t>JENNIFER LOPEZ</t>
   </si>
 </sst>
 </file>
@@ -444,6 +444,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,10 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -470,9 +473,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CIENTO CINCUENTA  00/100</v>
+        <v>TRESCIENTOS  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -858,7 +858,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45183</v>
+        <v>45187</v>
       </c>
     </row>
   </sheetData>
@@ -882,15 +882,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45183</v>
+        <v>45187</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -922,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,12 +930,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">Jaime Abril </v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+        <v>JENNIFER LOPEZ</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,13 +944,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -966,11 +966,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v xml:space="preserve">Jaime Abril </v>
-      </c>
-      <c r="C9" s="45"/>
+        <v>JENNIFER LOPEZ</v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -997,17 +997,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1026,15 +1026,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45183</v>
+        <v>45187</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1075,11 +1075,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1108,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1140,17 +1140,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1169,16 +1169,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1256,23 +1256,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>TRES</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>CIENTO</v>
+        <v>TRESCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIENTO</v>
+        <v>TRESCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1287,23 +1287,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>CINCUENTA</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>CINCUENTA</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>CINCUENTA</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1364,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CIENTO CINCUENTA  00/100</v>
+        <v>TRESCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602F4516-3616-49A7-9782-3BEAEA66CB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189827E6-2E33-4613-A81A-860BE2D0E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t>JENNIFER LOPEZ</t>
+    <t xml:space="preserve">CRISTIAN ABRIL </t>
   </si>
 </sst>
 </file>
@@ -444,35 +444,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -820,9 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -841,13 +839,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>TRESCIENTOS  00/100</v>
+        <v>DOSCIENTOS  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -858,7 +856,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45187</v>
+        <v>45188</v>
       </c>
     </row>
   </sheetData>
@@ -882,15 +880,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -899,7 +897,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -922,7 +920,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,12 +928,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v>JENNIFER LOPEZ</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v xml:space="preserve">CRISTIAN ABRIL </v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,13 +942,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -966,11 +964,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v>JENNIFER LOPEZ</v>
-      </c>
-      <c r="C9" s="41"/>
+        <v xml:space="preserve">CRISTIAN ABRIL </v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -997,17 +995,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1026,15 +1024,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,7 +1041,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1075,11 +1073,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1086,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1106,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1140,17 +1138,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1169,16 +1167,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1206,7 +1204,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,7 +1223,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1256,23 +1254,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>TRES</v>
+        <v>DOS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>TRESCIENTOS</v>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>TRESCIENTOS</v>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1364,7 +1362,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>TRESCIENTOS  00/100</v>
+        <v>DOSCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189827E6-2E33-4613-A81A-860BE2D0E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4273E152-F990-4809-B398-64A70D45A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">CRISTIAN ABRIL </t>
+    <t xml:space="preserve">NATHALY MECIAS </t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -839,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>DOSCIENTOS  00/100</v>
+        <v>TRESCIENTOS DIES DIEZ  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -856,7 +858,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45188</v>
+        <v>45191</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +899,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45188</v>
+        <v>45191</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -920,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,7 +932,7 @@
       </c>
       <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">CRISTIAN ABRIL </v>
+        <v xml:space="preserve">NATHALY MECIAS </v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
@@ -966,7 +968,7 @@
       </c>
       <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v xml:space="preserve">CRISTIAN ABRIL </v>
+        <v xml:space="preserve">NATHALY MECIAS </v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="8"/>
@@ -1041,7 +1043,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45188</v>
+        <v>45191</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1188,7 +1190,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1223,7 +1225,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1254,23 +1256,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>DOS</v>
+        <v>TRES</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>DOSCIENTOS</v>
+        <v>TRESCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>DOSCIENTOS</v>
+        <v>TRESCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1285,23 +1287,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>DIES</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>DIES</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>DIES</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1326,7 +1328,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1334,7 +1336,7 @@
       </c>
       <c r="G7" t="str">
         <f>IF(C6=0,D7,IF(C6=1,IF(C7=0,"DIEZ",IF(C7=1,"ONCE","")),""))</f>
-        <v/>
+        <v>DIEZ</v>
       </c>
       <c r="K7">
         <v>50</v>
@@ -1362,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOSCIENTOS  00/100</v>
+        <v>TRESCIENTOS DIES DIEZ  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4273E152-F990-4809-B398-64A70D45A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1939EC76-3480-43E6-9CDB-AF674457FA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">NATHALY MECIAS </t>
+    <t>MARCELO ABRIL</t>
   </si>
 </sst>
 </file>
@@ -444,6 +444,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,10 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -470,9 +473,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>310</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>TRESCIENTOS DIES DIEZ  00/100</v>
+        <v>DOSCIENTOS  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -858,7 +858,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45191</v>
+        <v>45196</v>
       </c>
     </row>
   </sheetData>
@@ -882,15 +882,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -922,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>310</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,12 +930,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">NATHALY MECIAS </v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+        <v>MARCELO ABRIL</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,13 +944,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -966,11 +966,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v xml:space="preserve">NATHALY MECIAS </v>
-      </c>
-      <c r="C9" s="45"/>
+        <v>MARCELO ABRIL</v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -997,17 +997,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1026,15 +1026,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1075,11 +1075,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1108,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1140,17 +1140,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1169,16 +1169,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>310</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1256,23 +1256,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>TRES</v>
+        <v>DOS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>TRESCIENTOS</v>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>TRESCIENTOS</v>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1287,23 +1287,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>DIES</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>DIES</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>DIES</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G7" t="str">
         <f>IF(C6=0,D7,IF(C6=1,IF(C7=0,"DIEZ",IF(C7=1,"ONCE","")),""))</f>
-        <v>DIEZ</v>
+        <v/>
       </c>
       <c r="K7">
         <v>50</v>
@@ -1364,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>TRESCIENTOS DIES DIEZ  00/100</v>
+        <v>DOSCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1939EC76-3480-43E6-9CDB-AF674457FA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACA667-1B7B-4542-9C1E-1CE808B7DFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t>MARCELO ABRIL</t>
+    <t xml:space="preserve">CHANGOLUISA ZAPATA CIA LTDA </t>
   </si>
 </sst>
 </file>
@@ -444,35 +444,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>DOSCIENTOS  00/100</v>
+        <v>MIL CIEN  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -858,7 +858,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45196</v>
+        <v>45197</v>
       </c>
     </row>
   </sheetData>
@@ -882,15 +882,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -922,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,12 +930,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v>MARCELO ABRIL</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v xml:space="preserve">CHANGOLUISA ZAPATA CIA LTDA </v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,13 +944,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -966,11 +966,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v>MARCELO ABRIL</v>
-      </c>
-      <c r="C9" s="41"/>
+        <v xml:space="preserve">CHANGOLUISA ZAPATA CIA LTDA </v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -997,17 +997,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1026,15 +1026,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1075,11 +1075,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1108,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1140,17 +1140,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1169,16 +1169,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,11 +1225,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1256,23 +1256,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>DOS</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>DOSCIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>DOSCIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1364,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOSCIENTOS  00/100</v>
+        <v>MIL CIEN  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACA667-1B7B-4542-9C1E-1CE808B7DFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A79EEC3-50A9-4558-B4DE-CBF4BE4E6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">CHANGOLUISA ZAPATA CIA LTDA </t>
+    <t xml:space="preserve">CRISTIAN ABRIL </t>
   </si>
 </sst>
 </file>
@@ -444,6 +444,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,10 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -470,9 +473,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>1100</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>MIL CIEN  00/100</v>
+        <v>QUINIENTOS VEINTE  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -858,7 +858,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45197</v>
+        <v>45201</v>
       </c>
     </row>
   </sheetData>
@@ -882,15 +882,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45197</v>
+        <v>45201</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -922,7 +922,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>1100</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,12 +930,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">CHANGOLUISA ZAPATA CIA LTDA </v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+        <v xml:space="preserve">CRISTIAN ABRIL </v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,13 +944,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -966,11 +966,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v xml:space="preserve">CHANGOLUISA ZAPATA CIA LTDA </v>
-      </c>
-      <c r="C9" s="45"/>
+        <v xml:space="preserve">CRISTIAN ABRIL </v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -997,17 +997,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1026,15 +1026,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45197</v>
+        <v>45201</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1075,11 +1075,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1108,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1140,17 +1140,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1169,16 +1169,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>1100</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,11 +1225,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>1100</v>
+        <v>520</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>MIL</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>MIL</v>
+        <v/>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1256,23 +1256,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>QUINIENTOS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>CIEN</v>
+        <v>QUINIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIEN</v>
+        <v>QUINIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1287,23 +1287,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>VEINTE</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>VEINTE</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>VEINTE</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1364,7 +1364,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>MIL CIEN  00/100</v>
+        <v>QUINIENTOS VEINTE  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A79EEC3-50A9-4558-B4DE-CBF4BE4E6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C5A576-E149-465D-83E9-A6D3B5C16B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -123,7 +123,10 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">CRISTIAN ABRIL </t>
+    <t>CHANGOLUISA ZAPATA HERMANOS CIA. LTDA.</t>
+  </si>
+  <si>
+    <t>MIL CIEN 00/100</t>
   </si>
 </sst>
 </file>
@@ -444,35 +447,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +824,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,24 +844,24 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>520</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="str">
-        <f>Hoja3!E9</f>
-        <v>QUINIENTOS VEINTE  00/100</v>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45201</v>
+        <v>45218</v>
       </c>
     </row>
   </sheetData>
@@ -882,15 +885,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -899,7 +902,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45201</v>
+        <v>45218</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -922,7 +925,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>520</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,12 +933,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">CRISTIAN ABRIL </v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v>CHANGOLUISA ZAPATA HERMANOS CIA. LTDA.</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,13 +947,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -966,11 +969,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v xml:space="preserve">CRISTIAN ABRIL </v>
-      </c>
-      <c r="C9" s="41"/>
+        <v>CHANGOLUISA ZAPATA HERMANOS CIA. LTDA.</v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -997,17 +1000,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1026,15 +1029,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,7 +1046,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45201</v>
+        <v>45218</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1075,11 +1078,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1091,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1111,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1140,17 +1143,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1169,16 +1172,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1206,7 +1209,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>520</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,11 +1228,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>520</v>
+        <v>1100</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1237,11 +1240,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1256,23 +1259,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>520</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>QUINIENTOS</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>QUINIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>QUINIENTOS</v>
+        <v>CIEN</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1287,23 +1290,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1328,7 +1331,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1364,7 +1367,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>QUINIENTOS VEINTE  00/100</v>
+        <v>MIL CIEN  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C5A576-E149-465D-83E9-A6D3B5C16B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -123,16 +117,13 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t>CHANGOLUISA ZAPATA HERMANOS CIA. LTDA.</t>
-  </si>
-  <si>
-    <t>MIL CIEN 00/100</t>
+    <t xml:space="preserve">JAIME ABRIL </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -447,6 +438,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,10 +453,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -473,9 +467,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,26 +567,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,23 +602,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -820,11 +777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,12 +801,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="B2" t="str">
+        <f>Hoja3!E9</f>
+        <v>CUATROCIENTOS  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -861,7 +819,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45218</v>
+        <v>45222</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -885,15 +843,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -902,7 +860,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -925,7 +883,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>1100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -933,12 +891,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v>CHANGOLUISA ZAPATA HERMANOS CIA. LTDA.</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+        <v xml:space="preserve">JAIME ABRIL </v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -947,13 +905,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -969,11 +927,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v>CHANGOLUISA ZAPATA HERMANOS CIA. LTDA.</v>
-      </c>
-      <c r="C9" s="45"/>
+        <v xml:space="preserve">JAIME ABRIL </v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -1000,17 +958,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1029,15 +987,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1046,7 +1004,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1078,11 +1036,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1091,13 +1049,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1111,11 +1069,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1143,17 +1101,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1172,16 +1130,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1189,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1209,7 +1167,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>1100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1228,11 +1186,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1240,11 +1198,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>MIL</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>MIL</v>
+        <v/>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1259,23 +1217,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>CUATRO</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>CIEN</v>
+        <v>CUATROCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIEN</v>
+        <v>CUATROCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1367,7 +1325,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>MIL CIEN  00/100</v>
+        <v>CUATROCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB761585-057B-4BF9-BF20-0C1B35738D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -117,13 +123,13 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">JAIME ABRIL </t>
+    <t xml:space="preserve">LUIS VILLACIS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -534,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,9 +573,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,6 +625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -777,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>400</v>
+        <v>67.349999999999994</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CUATROCIENTOS  00/100</v>
+        <v>SESENTA Y SIETE  35/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -819,7 +859,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45222</v>
+        <v>45225</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -860,7 +900,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -883,7 +923,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>400</v>
+        <v>67.349999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -893,7 +933,7 @@
       </c>
       <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">JAIME ABRIL </v>
+        <v xml:space="preserve">LUIS VILLACIS </v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -929,7 +969,7 @@
       </c>
       <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v xml:space="preserve">JAIME ABRIL </v>
+        <v xml:space="preserve">LUIS VILLACIS </v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="8"/>
@@ -1004,7 +1044,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1147,7 +1187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1167,7 +1207,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>400</v>
+        <v>67.349999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1186,7 +1226,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>400</v>
+        <v>67.349999999999994</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1217,23 +1257,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>400</v>
+        <v>67.349999999999994</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>CUATRO</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>CUATROCIENTOS</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CUATROCIENTOS</v>
+        <v/>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1248,23 +1288,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>67.349999999999994</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>SESENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>SESENTA Y SIETE</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>SESENTA Y SIETE</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1277,19 +1317,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v/>
+        <v>SIETE</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1306,11 +1346,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0</v>
+        <v>0.34999999999999432</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>0</v>
+        <v>34.999999999999432</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1325,7 +1365,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CUATROCIENTOS  00/100</v>
+        <v>SESENTA Y SIETE  35/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB761585-057B-4BF9-BF20-0C1B35738D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604A995-36C2-4A2B-BDBD-891118B5899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">LUIS VILLACIS </t>
+    <t xml:space="preserve">ROSA MOYA </t>
   </si>
 </sst>
 </file>
@@ -444,35 +444,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>67.349999999999994</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>SESENTA Y SIETE  35/100</v>
+        <v>NOVENTA  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -859,7 +859,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45236</v>
       </c>
     </row>
   </sheetData>
@@ -883,15 +883,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -923,7 +923,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>67.349999999999994</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -931,12 +931,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">LUIS VILLACIS </v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v xml:space="preserve">ROSA MOYA </v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -945,13 +945,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -967,11 +967,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v xml:space="preserve">LUIS VILLACIS </v>
-      </c>
-      <c r="C9" s="41"/>
+        <v xml:space="preserve">ROSA MOYA </v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -998,17 +998,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1027,15 +1027,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1076,11 +1076,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,13 +1089,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1109,11 +1109,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1141,17 +1141,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1170,16 +1170,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>67.349999999999994</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>67.349999999999994</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>67.349999999999994</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
@@ -1288,23 +1288,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>67.349999999999994</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>SESENTA</v>
+        <v>NOVENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>SESENTA Y SIETE</v>
+        <v>NOVENTA</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>SESENTA Y SIETE</v>
+        <v>NOVENTA</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1317,19 +1317,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>7.3499999999999943</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v>SIETE</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1346,11 +1346,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0.34999999999999432</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>34.999999999999432</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1365,7 +1365,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>SESENTA Y SIETE  35/100</v>
+        <v>NOVENTA  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604A995-36C2-4A2B-BDBD-891118B5899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF849F2-0054-4C50-A3A0-CDDED032DB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>NOVENTA  00/100</v>
+        <v>DOSCIENTOS OCHENTA  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -859,7 +859,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45236</v>
+        <v>45238</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +900,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -923,7 +923,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1207,7 +1207,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1257,23 +1257,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>DOS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v/>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v/>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1288,23 +1288,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>NOVENTA</v>
+        <v>OCHENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>NOVENTA</v>
+        <v>OCHENTA</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>NOVENTA</v>
+        <v>OCHENTA</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1365,7 +1365,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>NOVENTA  00/100</v>
+        <v>DOSCIENTOS OCHENTA  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF849F2-0054-4C50-A3A0-CDDED032DB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD7E40-5044-4E84-B8B1-DCC1439A9442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">ROSA MOYA </t>
+    <t>EDER LOPEZ</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>280</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>DOSCIENTOS OCHENTA  00/100</v>
+        <v>CIENTO CINCUENTA  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -859,7 +859,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45238</v>
+        <v>45240</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +900,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -923,7 +923,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>280</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -933,7 +933,7 @@
       </c>
       <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">ROSA MOYA </v>
+        <v>EDER LOPEZ</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v xml:space="preserve">ROSA MOYA </v>
+        <v>EDER LOPEZ</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="8"/>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1207,7 +1207,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>280</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
@@ -1257,23 +1257,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>DOS</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>DOSCIENTOS</v>
+        <v>CIENTO</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>DOSCIENTOS</v>
+        <v>CIENTO</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1288,23 +1288,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>OCHENTA</v>
+        <v>CINCUENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>OCHENTA</v>
+        <v>CINCUENTA</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>OCHENTA</v>
+        <v>CINCUENTA</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1365,7 +1365,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOSCIENTOS OCHENTA  00/100</v>
+        <v>CIENTO CINCUENTA  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD7E40-5044-4E84-B8B1-DCC1439A9442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3ABE27-C9A7-4DD9-8886-05CC5CA6814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t>EDER LOPEZ</t>
+    <t xml:space="preserve">ROSA MOYA </t>
   </si>
 </sst>
 </file>
@@ -444,6 +444,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,10 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -470,9 +473,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>150</v>
+        <v>1127.8499999999999</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>CIENTO CINCUENTA  00/100</v>
+        <v>MIL CIENTO VENTISIETE  85/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -859,7 +859,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45246</v>
       </c>
     </row>
   </sheetData>
@@ -883,15 +883,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45246</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -923,7 +923,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>150</v>
+        <v>1127.8499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -931,12 +931,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v>EDER LOPEZ</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+        <v xml:space="preserve">ROSA MOYA </v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -945,13 +945,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -967,11 +967,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v>EDER LOPEZ</v>
-      </c>
-      <c r="C9" s="45"/>
+        <v xml:space="preserve">ROSA MOYA </v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -998,17 +998,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1027,15 +1027,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45246</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1076,11 +1076,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,13 +1089,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1109,11 +1109,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1141,17 +1141,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1170,16 +1170,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>150</v>
+        <v>1127.8499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1226,11 +1226,11 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>150</v>
+        <v>1127.8499999999999</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v/>
+        <v>MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>150</v>
+        <v>127.84999999999991</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
@@ -1288,23 +1288,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>50</v>
+        <v>27.849999999999909</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>CINCUENTA</v>
+        <v>VEINTE</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>CINCUENTA</v>
+        <v>VENTISIETE</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>CINCUENTA</v>
+        <v>VENTISIETE</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1317,19 +1317,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>7.8499999999999091</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v/>
+        <v>SIETE</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1346,11 +1346,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0</v>
+        <v>0.84999999999990905</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>0</v>
+        <v>84.999999999990905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1365,7 +1365,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>CIENTO CINCUENTA  00/100</v>
+        <v>MIL CIENTO VENTISIETE  85/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2814c5a2fbe62b/Documents/GitHub/OFICINA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3ABE27-C9A7-4DD9-8886-05CC5CA6814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6E3ABE27-C9A7-4DD9-8886-05CC5CA6814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9F0DEA2-51B5-46B9-B55D-286ECE13C952}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>servicio de transporte</t>
   </si>
   <si>
-    <t xml:space="preserve">ROSA MOYA </t>
+    <t xml:space="preserve">MARCELO ABRIL </t>
   </si>
 </sst>
 </file>
@@ -444,35 +444,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>1127.8499999999999</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>MIL CIENTO VENTISIETE  85/100</v>
+        <v>DOS MIL DOSCIENTOS  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -859,7 +859,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45246</v>
+        <v>45247</v>
       </c>
     </row>
   </sheetData>
@@ -883,15 +883,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -923,7 +923,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>1127.8499999999999</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -931,12 +931,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">ROSA MOYA </v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v xml:space="preserve">MARCELO ABRIL </v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -945,13 +945,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -967,11 +967,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v xml:space="preserve">ROSA MOYA </v>
-      </c>
-      <c r="C9" s="41"/>
+        <v xml:space="preserve">MARCELO ABRIL </v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -998,17 +998,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1027,15 +1027,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1076,11 +1076,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,13 +1089,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1109,11 +1109,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1141,17 +1141,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1170,16 +1170,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>1127.8499999999999</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1226,23 +1226,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>1127.8499999999999</v>
+        <v>2200</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v/>
+        <v>DOS</v>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>MIL</v>
+        <v>DOS MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>MIL</v>
+        <v>DOS MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1257,23 +1257,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>127.84999999999991</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>DOS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>CIENTO</v>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>CIENTO</v>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1288,23 +1288,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>27.849999999999909</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>VEINTE</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>VENTISIETE</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>VENTISIETE</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1317,19 +1317,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>7.8499999999999091</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v>SIETE</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1346,11 +1346,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0.84999999999990905</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>84.999999999990905</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1365,7 +1365,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>MIL CIENTO VENTISIETE  85/100</v>
+        <v>DOS MIL DOSCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2814c5a2fbe62b/Documents/GitHub/OFICINA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6E3ABE27-C9A7-4DD9-8886-05CC5CA6814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9F0DEA2-51B5-46B9-B55D-286ECE13C952}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{6E3ABE27-C9A7-4DD9-8886-05CC5CA6814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB1638E4-E987-43E3-AED9-824FD3E0EFB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>servicio de transporte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCELO ABRIL </t>
   </si>
 </sst>
 </file>
@@ -444,6 +441,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,10 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -470,9 +470,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +818,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,21 +830,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="34" t="s">
-        <v>30</v>
-      </c>
+      <c r="B1" s="34"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>2200</v>
+        <v>1096.4100000000001</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>DOS MIL DOSCIENTOS  00/100</v>
+        <v>MIL NOVENTA Y SEIS  41/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -859,7 +854,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45247</v>
+        <v>45266</v>
       </c>
     </row>
   </sheetData>
@@ -883,15 +878,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -900,7 +895,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45247</v>
+        <v>45266</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -923,7 +918,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>2200</v>
+        <v>1096.4100000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -931,12 +926,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="37">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">MARCELO ABRIL </v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -945,13 +940,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -967,11 +962,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41">
         <f>C5</f>
-        <v xml:space="preserve">MARCELO ABRIL </v>
-      </c>
-      <c r="C9" s="45"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -998,17 +993,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1027,15 +1022,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,7 +1039,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45247</v>
+        <v>45266</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1076,11 +1071,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,13 +1084,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1109,11 +1104,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1141,17 +1136,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1170,16 +1165,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1207,7 +1202,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>2200</v>
+        <v>1096.4100000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1226,23 +1221,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>2200</v>
+        <v>1096.4100000000001</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v>DOS</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>DOS MIL</v>
+        <v>MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>DOS MIL</v>
+        <v>MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1257,23 +1252,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>200</v>
+        <v>96.410000000000082</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>DOS</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>DOSCIENTOS</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>DOSCIENTOS</v>
+        <v/>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1288,23 +1283,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>0</v>
+        <v>96.410000000000082</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v/>
+        <v>NOVENTA</v>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v/>
+        <v>NOVENTA Y SEIS</v>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v/>
+        <v>NOVENTA Y SEIS</v>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1317,19 +1312,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>0</v>
+        <v>6.4100000000000819</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v/>
+        <v>SEIS</v>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1346,11 +1341,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0</v>
+        <v>0.41000000000008185</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>0</v>
+        <v>41.000000000008185</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1365,7 +1360,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOS MIL DOSCIENTOS  00/100</v>
+        <v>MIL NOVENTA Y SEIS  41/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2814c5a2fbe62b/Documents/GitHub/OFICINA/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{6E3ABE27-C9A7-4DD9-8886-05CC5CA6814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB1638E4-E987-43E3-AED9-824FD3E0EFB6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t xml:space="preserve">Guayaquil, </t>
   </si>
@@ -121,12 +115,18 @@
   </si>
   <si>
     <t>servicio de transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO ABRIL </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -441,35 +441,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,7 +537,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,26 +570,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,23 +605,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,11 +780,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,19 +796,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="34"/>
+      <c r="B1" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>1096.4100000000001</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>MIL NOVENTA Y SEIS  41/100</v>
+        <v>DOS MIL DOSCIENTOS  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -854,7 +822,12 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45266</v>
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -878,15 +851,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -895,7 +868,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45266</v>
+        <v>45278</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -918,7 +891,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>1096.4100000000001</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -926,12 +899,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="40" t="str">
         <f>Hoja1!B1</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v xml:space="preserve">MARCELO ABRIL </v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -940,13 +913,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -962,11 +935,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="45" t="str">
         <f>C5</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="41"/>
+        <v xml:space="preserve">MARCELO ABRIL </v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -993,17 +966,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -1022,15 +995,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1039,7 +1012,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45266</v>
+        <v>45278</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1071,11 +1044,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1084,13 +1057,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1104,11 +1077,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="45" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1136,17 +1109,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1165,16 +1138,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1182,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1202,7 +1175,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>1096.4100000000001</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1221,23 +1194,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>1096.4100000000001</v>
+        <v>2200</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v/>
+        <v>DOS</v>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>MIL</v>
+        <v>DOS MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>MIL</v>
+        <v>DOS MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1252,23 +1225,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>96.410000000000082</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v/>
+        <v>DOS</v>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v/>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v/>
+        <v>DOSCIENTOS</v>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1283,23 +1256,23 @@
       </c>
       <c r="B6">
         <f>IF(B5&gt;99.99,B5-(100*C5),B5)</f>
-        <v>96.410000000000082</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(B6&gt;=10,INT(B6/10),0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>IF(C6=1,"DIES",IF(C6=2,"VEINTE",IF(C6=3,"TREINTA",IF(C6=4,"CUARENTA",IF(C6=5,"CINCUENTA",IF(C6=6,"SESENTA",IF(C6=7,"SETENTA",IF(C6=8,"OCHENTA",IF(C6=9,"NOVENTA","")))))))))</f>
-        <v>NOVENTA</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(C7=0,D6,IF(C6&gt;1,IF(C6=2,CONCATENATE("VENTI",D7),CONCATENATE(D6," Y ",D7)),""))</f>
-        <v>NOVENTA Y SEIS</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(C6=0,"",IF(C6=1,IF(C7=0,E6,F7),E6))</f>
-        <v>NOVENTA Y SEIS</v>
+        <v/>
       </c>
       <c r="I6">
         <f>I5+I4</f>
@@ -1312,19 +1285,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>IF(B6&gt;9.99,B6-(10*C6),B6)</f>
-        <v>6.4100000000000819</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>INT(B7)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(C7=1,"UNO",IF(C7=2,"DOS",IF(C7=3,"TRES",IF(C7=4,"CUATRO",IF(C7=5,"CINCO",IF(C7=6,"SEIS",IF(C7=7,"SIETE",IF(C7=8,"OCHO",IF(C7=9,"NUEVE","")))))))))</f>
-        <v>SEIS</v>
+        <v/>
       </c>
       <c r="E7">
         <f>INT(B6)</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(C6=1,IF(E7=12,"DOCE",IF(E7=13,"TRECE",IF(E7=14,"CATORCE",IF(E7=15,"QUINCE",IF(E7=16,"DIECISEIS",IF(E7=17,"DIECISIETE",IF(E7=18,"DIECIOCHO",IF(E7=19,"DIECINUEVE","")))))))),"")</f>
@@ -1341,11 +1314,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7-C7</f>
-        <v>0.41000000000008185</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>B8*100</f>
-        <v>41.000000000008185</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1360,7 +1333,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>MIL NOVENTA Y SEIS  41/100</v>
+        <v>DOS MIL DOSCIENTOS  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>

--- a/Formato cheques Abriltrans.xlsx
+++ b/Formato cheques Abriltrans.xlsx
@@ -120,7 +120,7 @@
     <t xml:space="preserve">                          </t>
   </si>
   <si>
-    <t xml:space="preserve">MARCELO ABRIL </t>
+    <t>ABRILTRANS S.A</t>
   </si>
 </sst>
 </file>
@@ -441,6 +441,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,10 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -467,9 +470,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -784,7 +784,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,6 +793,7 @@
     <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -804,13 +805,13 @@
       <c r="E1" s="34"/>
       <c r="F1" s="1"/>
       <c r="G1" s="3">
-        <v>2200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>Hoja3!E9</f>
-        <v>DOS MIL DOSCIENTOS  00/100</v>
+        <v>CINCO MIL  00/100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -822,7 +823,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45278</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,15 +852,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -868,7 +869,7 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45278</v>
+        <v>45280</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -891,7 +892,7 @@
       </c>
       <c r="F4" s="22">
         <f>Hoja1!G1</f>
-        <v>2200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -899,12 +900,12 @@
       <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="37" t="str">
         <f>Hoja1!B1</f>
-        <v xml:space="preserve">MARCELO ABRIL </v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+        <v>ABRILTRANS S.A</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -913,13 +914,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
@@ -935,11 +936,11 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="41" t="str">
         <f>C5</f>
-        <v xml:space="preserve">MARCELO ABRIL </v>
-      </c>
-      <c r="C9" s="45"/>
+        <v>ABRILTRANS S.A</v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -966,17 +967,17 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>7</v>
@@ -995,15 +996,15 @@
       <c r="G15" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1012,7 +1013,7 @@
       </c>
       <c r="C21" s="13">
         <f ca="1">TODAY()</f>
-        <v>45278</v>
+        <v>45280</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -1044,11 +1045,11 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1057,13 +1058,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
@@ -1077,11 +1078,11 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="41" t="str">
         <f>C23</f>
         <v>Jenny Medina</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="8"/>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -1109,17 +1110,17 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="5"/>
       <c r="E30" s="25"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
         <v>7</v>
@@ -1138,16 +1139,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1159,7 +1160,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1176,7 @@
       <c r="B1" s="46"/>
       <c r="C1">
         <f>Hoja1!G1</f>
-        <v>2200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1194,23 +1195,23 @@
       </c>
       <c r="B4">
         <f>C1</f>
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="C4">
         <f>IF(B4&gt;=1000,INT(B4/1000),0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="str">
         <f>IF(C4=2,"DOS",IF(C4=3,"TRES",IF(C4=4,"CUATRO",IF(C4=5,"CINCO",IF(C4=6,"SEIS",IF(C4=7,"SIETE",IF(C4=8,"OCHO",IF(C4=9,"NUEVE",""))))))))</f>
-        <v>DOS</v>
+        <v>CINCO</v>
       </c>
       <c r="E4" t="str">
         <f>IF(C4=0,"",IF(C4=1,A4,CONCATENATE(D4," ",A4)))</f>
-        <v>DOS MIL</v>
+        <v>CINCO MIL</v>
       </c>
       <c r="G4" t="str">
         <f>IF(E4="","",E4)</f>
-        <v>DOS MIL</v>
+        <v>CINCO MIL</v>
       </c>
       <c r="I4">
         <v>580</v>
@@ -1225,23 +1226,23 @@
       </c>
       <c r="B5">
         <f>IF(B4&gt;999.99,B4-(1000*C4),B4)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f>IF(B5&gt;=100,INT(B5/100),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5=2,"DOS",IF(C5=3,"TRES",IF(C5=4,"CUATRO",IF(C5=5,"QUINIENTOS",IF(C5=6,"SEIS",IF(C5=7,"SETE",IF(C5=8,"OCHO",IF(C5=9,"NOVE",""))))))))</f>
-        <v>DOS</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(D5="QUINIENTOS",D5,IF(C5=0,"",IF(C6=0,IF(C7=0,IF(C5=1,A5,CONCATENATE(D5,A5,"TOS")),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS")))),IF(C5=1,"CIENTO",IF(C5=5,D5,CONCATENATE(D5,A5,"TOS"))))))</f>
-        <v>DOSCIENTOS</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <f>E5</f>
-        <v>DOSCIENTOS</v>
+        <v/>
       </c>
       <c r="I5">
         <v>380</v>
@@ -1333,7 +1334,7 @@
       <c r="D9" s="47"/>
       <c r="E9" t="str">
         <f>CONCATENATE(IF(G4="","",CONCATENATE(G4," ")),IF(G5="","",CONCATENATE(G5," ")),IF(G6="","",CONCATENATE(G6," ")),IF(G7="","",CONCATENATE(G7," ")),CONCATENATE(" ",TEXT(C8,"00"),"/100"))</f>
-        <v>DOS MIL DOSCIENTOS  00/100</v>
+        <v>CINCO MIL  00/100</v>
       </c>
       <c r="K9">
         <v>100</v>
